--- a/simulation_data/two_step_algorithm/2s_error_level_9_percent_water_60.xlsx
+++ b/simulation_data/two_step_algorithm/2s_error_level_9_percent_water_60.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>90.44596492041474</v>
+        <v>93.75116723527066</v>
       </c>
       <c r="D2" t="n">
-        <v>15.596957356081</v>
+        <v>13.79323172082268</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>91.29426611273004</v>
+        <v>93.12160365624695</v>
       </c>
       <c r="D3" t="n">
-        <v>13.92066796647843</v>
+        <v>13.38603744059751</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>91.52671667991198</v>
+        <v>93.25601877918449</v>
       </c>
       <c r="D4" t="n">
-        <v>15.58581092744408</v>
+        <v>12.89974691388842</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>88.37612766729985</v>
+        <v>90.31184314237416</v>
       </c>
       <c r="D5" t="n">
-        <v>16.32098440438886</v>
+        <v>14.48335980693231</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>88.43316070105563</v>
+        <v>86.04493039523197</v>
       </c>
       <c r="D6" t="n">
-        <v>13.75015429476235</v>
+        <v>13.84242033130605</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>88.71313655229817</v>
+        <v>86.78351541540339</v>
       </c>
       <c r="D7" t="n">
-        <v>14.95786920930946</v>
+        <v>14.62015992910067</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>85.56986615877982</v>
+        <v>87.3815747893541</v>
       </c>
       <c r="D8" t="n">
-        <v>14.56961726180663</v>
+        <v>14.68305870511202</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>86.07613745330447</v>
+        <v>83.99192427608781</v>
       </c>
       <c r="D9" t="n">
-        <v>15.80795026059893</v>
+        <v>12.87818225650399</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>86.06285316786617</v>
+        <v>82.97560836886785</v>
       </c>
       <c r="D10" t="n">
-        <v>15.4123397190417</v>
+        <v>14.22945838792803</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>83.59985546411536</v>
+        <v>81.35603105271251</v>
       </c>
       <c r="D11" t="n">
-        <v>14.65823693991737</v>
+        <v>12.84921712877586</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>82.0989263987844</v>
+        <v>82.70584699889689</v>
       </c>
       <c r="D12" t="n">
-        <v>14.18095867453473</v>
+        <v>13.98086406731701</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>83.21597102536857</v>
+        <v>80.19863576791438</v>
       </c>
       <c r="D13" t="n">
-        <v>12.68151621881739</v>
+        <v>14.8956453135888</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>77.92410090739173</v>
+        <v>82.13408670933607</v>
       </c>
       <c r="D14" t="n">
-        <v>15.33578310892968</v>
+        <v>12.5966196009304</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>76.73841107060117</v>
+        <v>79.01161869595107</v>
       </c>
       <c r="D15" t="n">
-        <v>12.31890384400432</v>
+        <v>12.13016121506589</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>79.29627334707725</v>
+        <v>77.15933878444238</v>
       </c>
       <c r="D16" t="n">
-        <v>14.21294723648911</v>
+        <v>14.22305889986699</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>76.16176362126342</v>
+        <v>77.59808651530341</v>
       </c>
       <c r="D17" t="n">
-        <v>16.65780106031901</v>
+        <v>13.7403293533745</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>76.95738763242629</v>
+        <v>77.44851992637157</v>
       </c>
       <c r="D18" t="n">
-        <v>15.17149968830077</v>
+        <v>13.58521141354343</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>75.41976674264927</v>
+        <v>74.13606966994458</v>
       </c>
       <c r="D19" t="n">
-        <v>15.05408060598189</v>
+        <v>13.89934791408261</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>74.65707723063322</v>
+        <v>76.0429402204675</v>
       </c>
       <c r="D20" t="n">
-        <v>14.40362484826352</v>
+        <v>14.19793422770397</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>73.2489779373287</v>
+        <v>72.99511312996661</v>
       </c>
       <c r="D21" t="n">
-        <v>15.33601346132895</v>
+        <v>14.63145774742004</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>74.52835413823115</v>
+        <v>71.40248640139789</v>
       </c>
       <c r="D22" t="n">
-        <v>13.90031182320315</v>
+        <v>12.43172051895349</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>72.11118594438901</v>
+        <v>71.15155973258446</v>
       </c>
       <c r="D23" t="n">
-        <v>14.30674441333287</v>
+        <v>13.58808634300561</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>70.12122571883509</v>
+        <v>69.54579833071507</v>
       </c>
       <c r="D24" t="n">
-        <v>14.63008836854029</v>
+        <v>12.88466970938314</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>67.29454757487225</v>
+        <v>67.60319719412041</v>
       </c>
       <c r="D25" t="n">
-        <v>14.71097605121733</v>
+        <v>14.32668856588575</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>67.55243386685451</v>
+        <v>66.82024819896735</v>
       </c>
       <c r="D26" t="n">
-        <v>14.06168263715348</v>
+        <v>14.10586837707942</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>65.64025902741045</v>
+        <v>66.36363214219166</v>
       </c>
       <c r="D27" t="n">
-        <v>12.82170160724695</v>
+        <v>14.74207486130326</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>65.47956252589769</v>
+        <v>64.90177359503151</v>
       </c>
       <c r="D28" t="n">
-        <v>14.80201945680889</v>
+        <v>12.71160213826198</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>64.84993882640021</v>
+        <v>62.36758412634062</v>
       </c>
       <c r="D29" t="n">
-        <v>14.87773489955596</v>
+        <v>13.87812719700198</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>64.14261244978633</v>
+        <v>62.40437215877623</v>
       </c>
       <c r="D30" t="n">
-        <v>13.47041033391346</v>
+        <v>12.68646066139493</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>63.42049150101489</v>
+        <v>65.08743142390911</v>
       </c>
       <c r="D31" t="n">
-        <v>14.42676559681577</v>
+        <v>14.3582525997567</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>59.75785867607227</v>
+        <v>59.53472379702881</v>
       </c>
       <c r="D32" t="n">
-        <v>14.37621703853345</v>
+        <v>14.47072895459558</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>60.59214341771428</v>
+        <v>58.34962360951908</v>
       </c>
       <c r="D33" t="n">
-        <v>13.43094596897077</v>
+        <v>12.51359347000823</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>60.07492804275278</v>
+        <v>60.17933547038404</v>
       </c>
       <c r="D34" t="n">
-        <v>12.64884087145932</v>
+        <v>13.80811730329664</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>57.87037747085798</v>
+        <v>57.38686501515051</v>
       </c>
       <c r="D35" t="n">
-        <v>15.15077425333688</v>
+        <v>13.76651388905402</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>56.08173730058513</v>
+        <v>56.25145256306276</v>
       </c>
       <c r="D36" t="n">
-        <v>13.64950465416382</v>
+        <v>13.80400096801928</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>54.91820653074984</v>
+        <v>55.25401997237286</v>
       </c>
       <c r="D37" t="n">
-        <v>12.86775789417115</v>
+        <v>12.35028574733773</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>53.98527341939163</v>
+        <v>55.41439832033919</v>
       </c>
       <c r="D38" t="n">
-        <v>13.21166541708902</v>
+        <v>11.78809901080094</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>55.15792376699266</v>
+        <v>54.58100977517574</v>
       </c>
       <c r="D39" t="n">
-        <v>13.30872291129547</v>
+        <v>13.84271443291162</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>52.62833088130985</v>
+        <v>55.55472266991991</v>
       </c>
       <c r="D40" t="n">
-        <v>13.78667228338691</v>
+        <v>14.19000707892148</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>52.89660462950565</v>
+        <v>53.20140906576476</v>
       </c>
       <c r="D41" t="n">
-        <v>14.02215862404707</v>
+        <v>14.0811913377171</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>51.03969141905088</v>
+        <v>49.83369737869749</v>
       </c>
       <c r="D42" t="n">
-        <v>13.80965029906262</v>
+        <v>13.61032428306914</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>49.43467874376359</v>
+        <v>49.79342120975983</v>
       </c>
       <c r="D43" t="n">
-        <v>14.45502697699541</v>
+        <v>13.91630084911601</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>47.95016434816745</v>
+        <v>50.51006641184879</v>
       </c>
       <c r="D44" t="n">
-        <v>14.66011809905759</v>
+        <v>11.89594618420184</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>48.66592969294658</v>
+        <v>48.9268015898121</v>
       </c>
       <c r="D45" t="n">
-        <v>12.79328666633329</v>
+        <v>13.38223883013425</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>49.10984502552239</v>
+        <v>45.55259125932281</v>
       </c>
       <c r="D46" t="n">
-        <v>15.29917842846674</v>
+        <v>12.79130982761394</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>45.8959830643978</v>
+        <v>44.56511853151522</v>
       </c>
       <c r="D47" t="n">
-        <v>14.11608527868112</v>
+        <v>14.32517681511274</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>44.85166499501553</v>
+        <v>43.54854387115389</v>
       </c>
       <c r="D48" t="n">
-        <v>13.68627515907782</v>
+        <v>12.91221758372609</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>42.66897443128757</v>
+        <v>44.01133154090007</v>
       </c>
       <c r="D49" t="n">
-        <v>14.59444844410453</v>
+        <v>12.95494394710955</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>43.65071770407123</v>
+        <v>41.77409600949807</v>
       </c>
       <c r="D50" t="n">
-        <v>15.16614648102438</v>
+        <v>13.06903746573494</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>41.50026481821519</v>
+        <v>39.56916053011544</v>
       </c>
       <c r="D51" t="n">
-        <v>14.537481530419</v>
+        <v>12.35124308495332</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>39.7599727468455</v>
+        <v>40.02693453473029</v>
       </c>
       <c r="D52" t="n">
-        <v>14.35395968814597</v>
+        <v>13.16105256094759</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>39.52450942051239</v>
+        <v>38.11182948703262</v>
       </c>
       <c r="D53" t="n">
-        <v>14.1251458684631</v>
+        <v>14.17677953250225</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>39.00281444111226</v>
+        <v>39.69841458674536</v>
       </c>
       <c r="D54" t="n">
-        <v>15.12545047293176</v>
+        <v>13.94238972106888</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>37.8929660787466</v>
+        <v>37.03106500367145</v>
       </c>
       <c r="D55" t="n">
-        <v>14.16613686125232</v>
+        <v>13.62093050301703</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>32.93584484471577</v>
+        <v>37.00682335593772</v>
       </c>
       <c r="D56" t="n">
-        <v>14.24282395280468</v>
+        <v>14.29209443321748</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>35.19502332545331</v>
+        <v>35.65294197953066</v>
       </c>
       <c r="D57" t="n">
-        <v>15.74556112553925</v>
+        <v>13.75665230793384</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>34.40432614421675</v>
+        <v>34.68292415100134</v>
       </c>
       <c r="D58" t="n">
-        <v>14.02491492160103</v>
+        <v>14.95082088745356</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>32.20158241120701</v>
+        <v>32.53925618877068</v>
       </c>
       <c r="D59" t="n">
-        <v>12.53332946033076</v>
+        <v>12.76345636822319</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>33.29879846011253</v>
+        <v>32.39669331368375</v>
       </c>
       <c r="D60" t="n">
-        <v>14.43115269303341</v>
+        <v>14.34001634120306</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>30.00016152162504</v>
+        <v>31.21673738952204</v>
       </c>
       <c r="D61" t="n">
-        <v>14.0828490651155</v>
+        <v>15.23979114188148</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>28.19122663641559</v>
+        <v>29.64540017919095</v>
       </c>
       <c r="D62" t="n">
-        <v>13.61364006965065</v>
+        <v>12.78469233221577</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>31.00655507901157</v>
+        <v>27.78204122777903</v>
       </c>
       <c r="D63" t="n">
-        <v>13.29244773036728</v>
+        <v>13.71246792318729</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>30.44787239853981</v>
+        <v>26.21563512446441</v>
       </c>
       <c r="D64" t="n">
-        <v>12.9790573443747</v>
+        <v>14.02227967903492</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>27.48451586937233</v>
+        <v>25.74519060507427</v>
       </c>
       <c r="D65" t="n">
-        <v>14.86639602347287</v>
+        <v>11.09961550100553</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>24.57354233633655</v>
+        <v>26.77786038108629</v>
       </c>
       <c r="D66" t="n">
-        <v>14.10222961563841</v>
+        <v>13.77927836805488</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>26.39518771149339</v>
+        <v>24.95320222582022</v>
       </c>
       <c r="D67" t="n">
-        <v>13.27266064755762</v>
+        <v>11.99424387450513</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>24.32370640189302</v>
+        <v>26.70960153214336</v>
       </c>
       <c r="D68" t="n">
-        <v>14.77292227568411</v>
+        <v>14.21953671422568</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>21.61136740922937</v>
+        <v>24.22752843973221</v>
       </c>
       <c r="D69" t="n">
-        <v>13.73401124036143</v>
+        <v>14.42327650899851</v>
       </c>
     </row>
   </sheetData>
